--- a/biology/Médecine/Dystrophie_musculaire_de_Becker/Dystrophie_musculaire_de_Becker.xlsx
+++ b/biology/Médecine/Dystrophie_musculaire_de_Becker/Dystrophie_musculaire_de_Becker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dystrophie musculaire de Becker est une maladie génétique caractérisée par une faiblesse musculaire et une fonte musculaire qui progressent lentement[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dystrophie musculaire de Becker est une maladie génétique caractérisée par une faiblesse musculaire et une fonte musculaire qui progressent lentement.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cela commence généralement dans les jambes et le bassin, entraînant des difficultés à marcher  et des chutes[2]. La condition devient généralement perceptible entre 5 et 15 ans [2] Les complications peuvent inclure une cardiomyopathie, qui est la cause la plus  fréquente de décès[3],[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cela commence généralement dans les jambes et le bassin, entraînant des difficultés à marcher  et des chutes. La condition devient généralement perceptible entre 5 et 15 ans  Les complications peuvent inclure une cardiomyopathie, qui est la cause la plus  fréquente de décès,
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est causée par une mutation du gène qui code pour la protéine dystrophine [1]. Elle est transmise de manière récessive liée au chromosome X [1]. C'est un type de dystrophinopathie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est causée par une mutation du gène qui code pour la protéine dystrophine . Elle est transmise de manière récessive liée au chromosome X . C'est un type de dystrophinopathie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diagnostic peut être suspecté sur la base des symptômes et confirmé par des tests de laboratoire, une biopsie musculaire ou des tests génétiques [2]. Elle est moins grave que la dystrophie musculaire de Duchenne, qui résulte également d'une mutation du gène de la dystrophine[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic peut être suspecté sur la base des symptômes et confirmé par des tests de laboratoire, une biopsie musculaire ou des tests génétiques . Elle est moins grave que la dystrophie musculaire de Duchenne, qui résulte également d'une mutation du gène de la dystrophine.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'existe pas de traitement curatif, mais la kinésithérapie peut améliorer les symptômes[2]. Des corticostéroïdes peuvent être utilisés dans certains cas[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe pas de traitement curatif, mais la kinésithérapie peut améliorer les symptômes. Des corticostéroïdes peuvent être utilisés dans certains cas.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dystrophie musculaire de Becker affecte environ 3 hommes sur 100 000 aux États-Unis[1]. Les taux dans d'autres pays varient de 0,1 à 7 pour 100 000 hommes[1]. L'espérance de vie peut atteindre la quarantaine [3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dystrophie musculaire de Becker affecte environ 3 hommes sur 100 000 aux États-Unis. Les taux dans d'autres pays varient de 0,1 à 7 pour 100 000 hommes. L'espérance de vie peut atteindre la quarantaine .
 </t>
         </is>
       </c>
